--- a/biology/Botanique/Hymenophyllum_lanceolatum/Hymenophyllum_lanceolatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_lanceolatum/Hymenophyllum_lanceolatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum lanceolatum est une espèce de fougères de la famille des Hyménophyllacées.
 Synonyme : Sphaerocionium lanceolatum (Hook. &amp; Arn.) Copel.
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum lanceolatum appartient au sous-genre Sphaerocionium.
 Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
-les frondes, de moins d'une quinzaine de centimètres de long, comportent un limbe divisé deux fois, lancéolé : cette forme est à l'origine de l'épithète spécifique[1] ;
+les frondes, de moins d'une quinzaine de centimètres de long, comportent un limbe divisé deux fois, lancéolé : cette forme est à l'origine de l'épithète spécifique ;
 une pilosité assez abondante est présente sur les nervures, les sores et les pourtours du limbe (caractéristique du sous-genre) ;
 Les sores, solitaires, sont portés par l'extrémité d'un segment axillaire ;
 l'indusie, englobant complètement les sporanges, a deux lèvres.</t>
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, terrestre, est présente dans l'archipel des îles Hawaï.
 </t>
